--- a/Deliverable 3/trasportationConnection.xlsx
+++ b/Deliverable 3/trasportationConnection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
